--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Col1a1-Ddr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Col1a1-Ddr1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>27.524977</v>
+        <v>23.9754265</v>
       </c>
       <c r="H2">
-        <v>55.049954</v>
+        <v>47.950853</v>
       </c>
       <c r="I2">
-        <v>0.02927501708753065</v>
+        <v>0.02590932378848207</v>
       </c>
       <c r="J2">
-        <v>0.02011213558514335</v>
+        <v>0.01788258088872626</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.052894</v>
+        <v>0.661924</v>
       </c>
       <c r="N2">
-        <v>0.105788</v>
+        <v>1.323848</v>
       </c>
       <c r="O2">
-        <v>0.003223137300516178</v>
+        <v>0.05936527823060875</v>
       </c>
       <c r="P2">
-        <v>0.002864772232626178</v>
+        <v>0.05145114524005746</v>
       </c>
       <c r="Q2">
-        <v>1.455906133438</v>
+        <v>15.869910210586</v>
       </c>
       <c r="R2">
-        <v>5.823624533752</v>
+        <v>63.47964084234399</v>
       </c>
       <c r="S2">
-        <v>9.435739954806852E-05</v>
+        <v>0.001538114215470168</v>
       </c>
       <c r="T2">
-        <v>5.761668756313152E-05</v>
+        <v>0.0009200792665729308</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>27.524977</v>
+        <v>23.9754265</v>
       </c>
       <c r="H3">
-        <v>55.049954</v>
+        <v>47.950853</v>
       </c>
       <c r="I3">
-        <v>0.02927501708753065</v>
+        <v>0.02590932378848207</v>
       </c>
       <c r="J3">
-        <v>0.02011213558514335</v>
+        <v>0.01788258088872626</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>8.447531</v>
       </c>
       <c r="O3">
-        <v>0.1715856383418833</v>
+        <v>0.2525415949951417</v>
       </c>
       <c r="P3">
-        <v>0.2287617900239049</v>
+        <v>0.3283119696527757</v>
       </c>
       <c r="Q3">
-        <v>77.50603216059567</v>
+        <v>67.51105286565715</v>
       </c>
       <c r="R3">
-        <v>465.036192963574</v>
+        <v>405.066317193943</v>
       </c>
       <c r="S3">
-        <v>0.005023172494433488</v>
+        <v>0.006543181954788829</v>
       </c>
       <c r="T3">
-        <v>0.004600888137660869</v>
+        <v>0.005871065354052804</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>27.524977</v>
+        <v>23.9754265</v>
       </c>
       <c r="H4">
-        <v>55.049954</v>
+        <v>47.950853</v>
       </c>
       <c r="I4">
-        <v>0.02927501708753065</v>
+        <v>0.02590932378848207</v>
       </c>
       <c r="J4">
-        <v>0.02011213558514335</v>
+        <v>0.01788258088872626</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.226329</v>
+        <v>0.1998456666666667</v>
       </c>
       <c r="N4">
-        <v>0.678987</v>
+        <v>0.599537</v>
       </c>
       <c r="O4">
-        <v>0.01379153480713362</v>
+        <v>0.01792334709853119</v>
       </c>
       <c r="P4">
-        <v>0.01838718100270494</v>
+        <v>0.02330091163319983</v>
       </c>
       <c r="Q4">
-        <v>6.229700519433</v>
+        <v>4.791385092510167</v>
       </c>
       <c r="R4">
-        <v>37.378203116598</v>
+        <v>28.748310555061</v>
       </c>
       <c r="S4">
-        <v>0.0004037474171421107</v>
+        <v>0.0004643818033491951</v>
       </c>
       <c r="T4">
-        <v>0.0003698054773549739</v>
+        <v>0.0004166804370617588</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>27.524977</v>
+        <v>23.9754265</v>
       </c>
       <c r="H5">
-        <v>55.049954</v>
+        <v>47.950853</v>
       </c>
       <c r="I5">
-        <v>0.02927501708753065</v>
+        <v>0.02590932378848207</v>
       </c>
       <c r="J5">
-        <v>0.02011213558514335</v>
+        <v>0.01788258088872626</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.2520685</v>
+        <v>7.057938999999999</v>
       </c>
       <c r="N5">
-        <v>24.504137</v>
+        <v>14.115878</v>
       </c>
       <c r="O5">
-        <v>0.7465893861464306</v>
+        <v>0.6329979158780531</v>
       </c>
       <c r="P5">
-        <v>0.6635797185131369</v>
+        <v>0.5486113882930154</v>
       </c>
       <c r="Q5">
-        <v>337.2379036649245</v>
+        <v>169.2170977359835</v>
       </c>
       <c r="R5">
-        <v>1348.951614659698</v>
+        <v>676.8683909439338</v>
       </c>
       <c r="S5">
-        <v>0.02185641703680578</v>
+        <v>0.01640054795991881</v>
       </c>
       <c r="T5">
-        <v>0.01334600527028747</v>
+        <v>0.009810587527626261</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>27.524977</v>
+        <v>23.9754265</v>
       </c>
       <c r="H6">
-        <v>55.049954</v>
+        <v>47.950853</v>
       </c>
       <c r="I6">
-        <v>0.02927501708753065</v>
+        <v>0.02590932378848207</v>
       </c>
       <c r="J6">
-        <v>0.02011213558514335</v>
+        <v>0.01788258088872626</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.5019366666666667</v>
+        <v>0.1328173333333333</v>
       </c>
       <c r="N6">
-        <v>1.50581</v>
+        <v>0.398452</v>
       </c>
       <c r="O6">
-        <v>0.03058590374768572</v>
+        <v>0.01191184780606359</v>
       </c>
       <c r="P6">
-        <v>0.0407778072712484</v>
+        <v>0.01548577459284704</v>
       </c>
       <c r="Q6">
-        <v>13.81579520545667</v>
+        <v>3.184352213259332</v>
       </c>
       <c r="R6">
-        <v>82.89477123274</v>
+        <v>19.106113279556</v>
       </c>
       <c r="S6">
-        <v>0.0008954028548510674</v>
+        <v>0.0003086279217264214</v>
       </c>
       <c r="T6">
-        <v>0.0008201287887041923</v>
+        <v>0.0002769256167811693</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>27.524977</v>
+        <v>23.9754265</v>
       </c>
       <c r="H7">
-        <v>55.049954</v>
+        <v>47.950853</v>
       </c>
       <c r="I7">
-        <v>0.02927501708753065</v>
+        <v>0.02590932378848207</v>
       </c>
       <c r="J7">
-        <v>0.02011213558514335</v>
+        <v>0.01788258088872626</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.5616469999999999</v>
+        <v>0.2816496666666666</v>
       </c>
       <c r="N7">
-        <v>1.684941</v>
+        <v>0.844949</v>
       </c>
       <c r="O7">
-        <v>0.03422439965635062</v>
+        <v>0.02526001599160157</v>
       </c>
       <c r="P7">
-        <v>0.04562873095637865</v>
+        <v>0.03283881058810476</v>
       </c>
       <c r="Q7">
-        <v>15.459320757119</v>
+        <v>6.752670881916165</v>
       </c>
       <c r="R7">
-        <v>92.75592454271398</v>
+        <v>40.51602529149699</v>
       </c>
       <c r="S7">
-        <v>0.001001919884750142</v>
+        <v>0.00065446993322864</v>
       </c>
       <c r="T7">
-        <v>0.0009176912235727151</v>
+        <v>0.0005872426866313438</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>2490.47351</v>
       </c>
       <c r="I8">
-        <v>0.8829393337463696</v>
+        <v>0.897119731561083</v>
       </c>
       <c r="J8">
-        <v>0.9098779792682091</v>
+        <v>0.9287862719314923</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.052894</v>
+        <v>0.661924</v>
       </c>
       <c r="N8">
-        <v>0.105788</v>
+        <v>1.323848</v>
       </c>
       <c r="O8">
-        <v>0.003223137300516178</v>
+        <v>0.05936527823060875</v>
       </c>
       <c r="P8">
-        <v>0.002864772232626178</v>
+        <v>0.05145114524005746</v>
       </c>
       <c r="Q8">
-        <v>43.91036861264666</v>
+        <v>549.5013958777466</v>
       </c>
       <c r="R8">
-        <v>263.46221167588</v>
+        <v>3297.00837526648</v>
       </c>
       <c r="S8">
-        <v>0.002845834700690826</v>
+        <v>0.05325776247029273</v>
       </c>
       <c r="T8">
-        <v>0.002606593170085582</v>
+        <v>0.04778711737411871</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>2490.47351</v>
       </c>
       <c r="I9">
-        <v>0.8829393337463696</v>
+        <v>0.897119731561083</v>
       </c>
       <c r="J9">
-        <v>0.9098779792682091</v>
+        <v>0.9287862719314923</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>8.447531</v>
       </c>
       <c r="O9">
-        <v>0.1715856383418833</v>
+        <v>0.2525415949951417</v>
       </c>
       <c r="P9">
-        <v>0.2287617900239049</v>
+        <v>0.3283119696527757</v>
       </c>
       <c r="Q9">
         <v>2337.594686711534</v>
@@ -1013,10 +1013,10 @@
         <v>21038.35218040381</v>
       </c>
       <c r="S9">
-        <v>0.151499709198028</v>
+        <v>0.2265600479100493</v>
       </c>
       <c r="T9">
-        <v>0.2081453152407289</v>
+        <v>0.3049316503242868</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,40 +1045,40 @@
         <v>2490.47351</v>
       </c>
       <c r="I10">
-        <v>0.8829393337463696</v>
+        <v>0.897119731561083</v>
       </c>
       <c r="J10">
-        <v>0.9098779792682091</v>
+        <v>0.9287862719314923</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.226329</v>
+        <v>0.1998456666666667</v>
       </c>
       <c r="N10">
-        <v>0.678987</v>
+        <v>0.599537</v>
       </c>
       <c r="O10">
-        <v>0.01379153480713362</v>
+        <v>0.01792334709853119</v>
       </c>
       <c r="P10">
-        <v>0.01838718100270494</v>
+        <v>0.02330091163319983</v>
       </c>
       <c r="Q10">
-        <v>187.88879301493</v>
+        <v>165.9034463072078</v>
       </c>
       <c r="R10">
-        <v>1690.99913713437</v>
+        <v>1493.13101676487</v>
       </c>
       <c r="S10">
-        <v>0.01217708855395043</v>
+        <v>0.01607938833771042</v>
       </c>
       <c r="T10">
-        <v>0.01673009109517998</v>
+        <v>0.02164156684840481</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>2490.47351</v>
       </c>
       <c r="I11">
-        <v>0.8829393337463696</v>
+        <v>0.897119731561083</v>
       </c>
       <c r="J11">
-        <v>0.9098779792682091</v>
+        <v>0.9287862719314923</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>12.2520685</v>
+        <v>7.057938999999999</v>
       </c>
       <c r="N11">
-        <v>24.504137</v>
+        <v>14.115878</v>
       </c>
       <c r="O11">
-        <v>0.7465893861464306</v>
+        <v>0.6329979158780531</v>
       </c>
       <c r="P11">
-        <v>0.6635797185131369</v>
+        <v>0.5486113882930154</v>
       </c>
       <c r="Q11">
-        <v>10171.15068065181</v>
+        <v>5859.203371565296</v>
       </c>
       <c r="R11">
-        <v>61026.90408391086</v>
+        <v>35155.22022939177</v>
       </c>
       <c r="S11">
-        <v>0.6591931351862405</v>
+        <v>0.567874920371244</v>
       </c>
       <c r="T11">
-        <v>0.6037765733641001</v>
+        <v>0.50954272607183</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,40 +1169,40 @@
         <v>2490.47351</v>
       </c>
       <c r="I12">
-        <v>0.8829393337463696</v>
+        <v>0.897119731561083</v>
       </c>
       <c r="J12">
-        <v>0.9098779792682091</v>
+        <v>0.9287862719314923</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.5019366666666667</v>
+        <v>0.1328173333333333</v>
       </c>
       <c r="N12">
-        <v>1.50581</v>
+        <v>0.398452</v>
       </c>
       <c r="O12">
-        <v>0.03058590374768572</v>
+        <v>0.01191184780606359</v>
       </c>
       <c r="P12">
-        <v>0.0407778072712484</v>
+        <v>0.01548577459284704</v>
       </c>
       <c r="Q12">
-        <v>416.6866573436778</v>
+        <v>110.2593501118355</v>
       </c>
       <c r="R12">
-        <v>3750.1799160931</v>
+        <v>992.3341510065198</v>
       </c>
       <c r="S12">
-        <v>0.02700549747701222</v>
+        <v>0.01068635370617225</v>
       </c>
       <c r="T12">
-        <v>0.03710282887895198</v>
+        <v>0.01438297485206183</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>2490.47351</v>
       </c>
       <c r="I13">
-        <v>0.8829393337463696</v>
+        <v>0.897119731561083</v>
       </c>
       <c r="J13">
-        <v>0.9098779792682091</v>
+        <v>0.9287862719314923</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.5616469999999999</v>
+        <v>0.2816496666666666</v>
       </c>
       <c r="N13">
-        <v>1.684941</v>
+        <v>0.844949</v>
       </c>
       <c r="O13">
-        <v>0.03422439965635062</v>
+        <v>0.02526001599160157</v>
       </c>
       <c r="P13">
-        <v>0.04562873095637865</v>
+        <v>0.03283881058810476</v>
       </c>
       <c r="Q13">
-        <v>466.2556584903232</v>
+        <v>233.8136779778877</v>
       </c>
       <c r="R13">
-        <v>4196.30092641291</v>
+        <v>2104.32310180099</v>
       </c>
       <c r="S13">
-        <v>0.03021806863044769</v>
+        <v>0.02266125876561426</v>
       </c>
       <c r="T13">
-        <v>0.04151657751916259</v>
+        <v>0.03050023646079023</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>1.012325</v>
+        <v>0.1360573333333333</v>
       </c>
       <c r="H14">
-        <v>3.036975</v>
+        <v>0.408172</v>
       </c>
       <c r="I14">
-        <v>0.001076688698890992</v>
+        <v>0.0001470319413559032</v>
       </c>
       <c r="J14">
-        <v>0.001109538674068479</v>
+        <v>0.000152221876147087</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.052894</v>
+        <v>0.661924</v>
       </c>
       <c r="N14">
-        <v>0.105788</v>
+        <v>1.323848</v>
       </c>
       <c r="O14">
-        <v>0.003223137300516178</v>
+        <v>0.05936527823060875</v>
       </c>
       <c r="P14">
-        <v>0.002864772232626178</v>
+        <v>0.05145114524005746</v>
       </c>
       <c r="Q14">
-        <v>0.05354591855</v>
+        <v>0.09005961430933333</v>
       </c>
       <c r="R14">
-        <v>0.3212755113</v>
+        <v>0.540357685856</v>
       </c>
       <c r="S14">
-        <v>3.470315506439786E-06</v>
+        <v>8.728592107379744E-06</v>
       </c>
       <c r="T14">
-        <v>3.178575584496245E-06</v>
+        <v>7.831989858357812E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>1.012325</v>
+        <v>0.1360573333333333</v>
       </c>
       <c r="H15">
-        <v>3.036975</v>
+        <v>0.408172</v>
       </c>
       <c r="I15">
-        <v>0.001076688698890992</v>
+        <v>0.0001470319413559032</v>
       </c>
       <c r="J15">
-        <v>0.001109538674068479</v>
+        <v>0.000152221876147087</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>8.447531</v>
       </c>
       <c r="O15">
-        <v>0.1715856383418833</v>
+        <v>0.2525415949951417</v>
       </c>
       <c r="P15">
-        <v>0.2287617900239049</v>
+        <v>0.3283119696527757</v>
       </c>
       <c r="Q15">
-        <v>2.850548939858334</v>
+        <v>0.3831161803702222</v>
       </c>
       <c r="R15">
-        <v>25.654940458725</v>
+        <v>3.448045623332</v>
       </c>
       <c r="S15">
-        <v>0.0001847443176947026</v>
+        <v>3.713168098525194E-05</v>
       </c>
       <c r="T15">
-        <v>0.0002538200531806552</v>
+        <v>4.997626398209102E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>1.012325</v>
+        <v>0.1360573333333333</v>
       </c>
       <c r="H16">
-        <v>3.036975</v>
+        <v>0.408172</v>
       </c>
       <c r="I16">
-        <v>0.001076688698890992</v>
+        <v>0.0001470319413559032</v>
       </c>
       <c r="J16">
-        <v>0.001109538674068479</v>
+        <v>0.000152221876147087</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.226329</v>
+        <v>0.1998456666666667</v>
       </c>
       <c r="N16">
-        <v>0.678987</v>
+        <v>0.599537</v>
       </c>
       <c r="O16">
-        <v>0.01379153480713362</v>
+        <v>0.01792334709853119</v>
       </c>
       <c r="P16">
-        <v>0.01838718100270494</v>
+        <v>0.02330091163319983</v>
       </c>
       <c r="Q16">
-        <v>0.229118504925</v>
+        <v>0.02719046848488889</v>
       </c>
       <c r="R16">
-        <v>2.062066544325</v>
+        <v>0.244714216364</v>
       </c>
       <c r="S16">
-        <v>1.484918966720253E-05</v>
+        <v>2.635304519492736E-06</v>
       </c>
       <c r="T16">
-        <v>2.040128842959836E-05</v>
+        <v>3.546908484743164E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>1.012325</v>
+        <v>0.1360573333333333</v>
       </c>
       <c r="H17">
-        <v>3.036975</v>
+        <v>0.408172</v>
       </c>
       <c r="I17">
-        <v>0.001076688698890992</v>
+        <v>0.0001470319413559032</v>
       </c>
       <c r="J17">
-        <v>0.001109538674068479</v>
+        <v>0.000152221876147087</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>12.2520685</v>
+        <v>7.057938999999999</v>
       </c>
       <c r="N17">
-        <v>24.504137</v>
+        <v>14.115878</v>
       </c>
       <c r="O17">
-        <v>0.7465893861464306</v>
+        <v>0.6329979158780531</v>
       </c>
       <c r="P17">
-        <v>0.6635797185131369</v>
+        <v>0.5486113882930154</v>
       </c>
       <c r="Q17">
-        <v>12.4030752442625</v>
+        <v>0.9602843591693333</v>
       </c>
       <c r="R17">
-        <v>74.418451465575</v>
+        <v>5.761706155015999</v>
       </c>
       <c r="S17">
-        <v>0.0008038443547758245</v>
+        <v>9.307091244579085E-05</v>
       </c>
       <c r="T17">
-        <v>0.0007362673610178003</v>
+        <v>8.351065480162086E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>1.012325</v>
+        <v>0.1360573333333333</v>
       </c>
       <c r="H18">
-        <v>3.036975</v>
+        <v>0.408172</v>
       </c>
       <c r="I18">
-        <v>0.001076688698890992</v>
+        <v>0.0001470319413559032</v>
       </c>
       <c r="J18">
-        <v>0.001109538674068479</v>
+        <v>0.000152221876147087</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>0.5019366666666667</v>
+        <v>0.1328173333333333</v>
       </c>
       <c r="N18">
-        <v>1.50581</v>
+        <v>0.398452</v>
       </c>
       <c r="O18">
-        <v>0.03058590374768572</v>
+        <v>0.01191184780606359</v>
       </c>
       <c r="P18">
-        <v>0.0407778072712484</v>
+        <v>0.01548577459284704</v>
       </c>
       <c r="Q18">
-        <v>0.5081230360833334</v>
+        <v>0.01807077219377777</v>
       </c>
       <c r="R18">
-        <v>4.57310732475</v>
+        <v>0.162636949744</v>
       </c>
       <c r="S18">
-        <v>3.293149691050085E-05</v>
+        <v>1.751422108061587E-06</v>
       </c>
       <c r="T18">
-        <v>4.524455421116092E-05</v>
+        <v>2.35727366211407E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>1.012325</v>
+        <v>0.1360573333333333</v>
       </c>
       <c r="H19">
-        <v>3.036975</v>
+        <v>0.408172</v>
       </c>
       <c r="I19">
-        <v>0.001076688698890992</v>
+        <v>0.0001470319413559032</v>
       </c>
       <c r="J19">
-        <v>0.001109538674068479</v>
+        <v>0.000152221876147087</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.5616469999999999</v>
+        <v>0.2816496666666666</v>
       </c>
       <c r="N19">
-        <v>1.684941</v>
+        <v>0.844949</v>
       </c>
       <c r="O19">
-        <v>0.03422439965635062</v>
+        <v>0.02526001599160157</v>
       </c>
       <c r="P19">
-        <v>0.04562873095637865</v>
+        <v>0.03283881058810476</v>
       </c>
       <c r="Q19">
-        <v>0.568569299275</v>
+        <v>0.03832050258088888</v>
       </c>
       <c r="R19">
-        <v>5.117123693475</v>
+        <v>0.344884523228</v>
       </c>
       <c r="S19">
-        <v>3.684902433632144E-05</v>
+        <v>3.714029189926339E-06</v>
       </c>
       <c r="T19">
-        <v>5.062684164476771E-05</v>
+        <v>4.998785358160132E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>55.986019</v>
+        <v>70.673643</v>
       </c>
       <c r="H20">
-        <v>111.972038</v>
+        <v>141.347286</v>
       </c>
       <c r="I20">
-        <v>0.05954561425747298</v>
+        <v>0.07637429514751654</v>
       </c>
       <c r="J20">
-        <v>0.04090824144922671</v>
+        <v>0.05271343713733154</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.052894</v>
+        <v>0.661924</v>
       </c>
       <c r="N20">
-        <v>0.105788</v>
+        <v>1.323848</v>
       </c>
       <c r="O20">
-        <v>0.003223137300516178</v>
+        <v>0.05936527823060875</v>
       </c>
       <c r="P20">
-        <v>0.002864772232626178</v>
+        <v>0.05145114524005746</v>
       </c>
       <c r="Q20">
-        <v>2.961324488986</v>
+        <v>46.780580469132</v>
       </c>
       <c r="R20">
-        <v>11.845297955944</v>
+        <v>187.122321876528</v>
       </c>
       <c r="S20">
-        <v>0.0001919236903954091</v>
+        <v>0.004533981281098951</v>
       </c>
       <c r="T20">
-        <v>0.0001171927941893119</v>
+        <v>0.002712166710255484</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>55.986019</v>
+        <v>70.673643</v>
       </c>
       <c r="H21">
-        <v>111.972038</v>
+        <v>141.347286</v>
       </c>
       <c r="I21">
-        <v>0.05954561425747298</v>
+        <v>0.07637429514751654</v>
       </c>
       <c r="J21">
-        <v>0.04090824144922671</v>
+        <v>0.05271343713733154</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>8.447531</v>
       </c>
       <c r="O21">
-        <v>0.1715856383418833</v>
+        <v>0.2525415949951417</v>
       </c>
       <c r="P21">
-        <v>0.2287617900239049</v>
+        <v>0.3283119696527757</v>
       </c>
       <c r="Q21">
-        <v>157.6478770230297</v>
+        <v>199.005930041811</v>
       </c>
       <c r="R21">
-        <v>945.8872621381779</v>
+        <v>1194.035580250866</v>
       </c>
       <c r="S21">
-        <v>0.01021717223282805</v>
+        <v>0.01928768631318354</v>
       </c>
       <c r="T21">
-        <v>0.009358242540655202</v>
+        <v>0.01730645237372509</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>55.986019</v>
+        <v>70.673643</v>
       </c>
       <c r="H22">
-        <v>111.972038</v>
+        <v>141.347286</v>
       </c>
       <c r="I22">
-        <v>0.05954561425747298</v>
+        <v>0.07637429514751654</v>
       </c>
       <c r="J22">
-        <v>0.04090824144922671</v>
+        <v>0.05271343713733154</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.226329</v>
+        <v>0.1998456666666667</v>
       </c>
       <c r="N22">
-        <v>0.678987</v>
+        <v>0.599537</v>
       </c>
       <c r="O22">
-        <v>0.01379153480713362</v>
+        <v>0.01792334709853119</v>
       </c>
       <c r="P22">
-        <v>0.01838718100270494</v>
+        <v>0.02330091163319983</v>
       </c>
       <c r="Q22">
-        <v>12.671259694251</v>
+        <v>14.123821301097</v>
       </c>
       <c r="R22">
-        <v>76.02755816550599</v>
+        <v>84.742927806582</v>
       </c>
       <c r="S22">
-        <v>0.0008212254116440909</v>
+        <v>0.001368883001334605</v>
       </c>
       <c r="T22">
-        <v>0.0007521872400292883</v>
+        <v>0.001228271140619196</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>55.986019</v>
+        <v>70.673643</v>
       </c>
       <c r="H23">
-        <v>111.972038</v>
+        <v>141.347286</v>
       </c>
       <c r="I23">
-        <v>0.05954561425747298</v>
+        <v>0.07637429514751654</v>
       </c>
       <c r="J23">
-        <v>0.04090824144922671</v>
+        <v>0.05271343713733154</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>12.2520685</v>
+        <v>7.057938999999999</v>
       </c>
       <c r="N23">
-        <v>24.504137</v>
+        <v>14.115878</v>
       </c>
       <c r="O23">
-        <v>0.7465893861464306</v>
+        <v>0.6329979158780531</v>
       </c>
       <c r="P23">
-        <v>0.6635797185131369</v>
+        <v>0.5486113882930154</v>
       </c>
       <c r="Q23">
-        <v>685.9445398303014</v>
+        <v>498.8102612017769</v>
       </c>
       <c r="R23">
-        <v>2743.778159321206</v>
+        <v>1995.241044807108</v>
       </c>
       <c r="S23">
-        <v>0.0444561235961989</v>
+        <v>0.04834476965503327</v>
       </c>
       <c r="T23">
-        <v>0.0271458793457453</v>
+        <v>0.02891919192960805</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,46 +1907,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>55.986019</v>
+        <v>70.673643</v>
       </c>
       <c r="H24">
-        <v>111.972038</v>
+        <v>141.347286</v>
       </c>
       <c r="I24">
-        <v>0.05954561425747298</v>
+        <v>0.07637429514751654</v>
       </c>
       <c r="J24">
-        <v>0.04090824144922671</v>
+        <v>0.05271343713733154</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.5019366666666667</v>
+        <v>0.1328173333333333</v>
       </c>
       <c r="N24">
-        <v>1.50581</v>
+        <v>0.398452</v>
       </c>
       <c r="O24">
-        <v>0.03058590374768572</v>
+        <v>0.01191184780606359</v>
       </c>
       <c r="P24">
-        <v>0.0407778072712484</v>
+        <v>0.01548577459284704</v>
       </c>
       <c r="Q24">
-        <v>28.10143575679667</v>
+        <v>9.386684800211999</v>
       </c>
       <c r="R24">
-        <v>168.60861454078</v>
+        <v>56.32010880127199</v>
       </c>
       <c r="S24">
-        <v>0.001821256426275891</v>
+        <v>0.0009097589800925982</v>
       </c>
       <c r="T24">
-        <v>0.001668148385622262</v>
+        <v>0.0008163084055229286</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>55.986019</v>
+        <v>70.673643</v>
       </c>
       <c r="H25">
-        <v>111.972038</v>
+        <v>141.347286</v>
       </c>
       <c r="I25">
-        <v>0.05954561425747298</v>
+        <v>0.07637429514751654</v>
       </c>
       <c r="J25">
-        <v>0.04090824144922671</v>
+        <v>0.05271343713733154</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.5616469999999999</v>
+        <v>0.2816496666666666</v>
       </c>
       <c r="N25">
-        <v>1.684941</v>
+        <v>0.844949</v>
       </c>
       <c r="O25">
-        <v>0.03422439965635062</v>
+        <v>0.02526001599160157</v>
       </c>
       <c r="P25">
-        <v>0.04562873095637865</v>
+        <v>0.03283881058810476</v>
       </c>
       <c r="Q25">
-        <v>31.44437961329299</v>
+        <v>19.905207993069</v>
       </c>
       <c r="R25">
-        <v>188.666277679758</v>
+        <v>119.431247958414</v>
       </c>
       <c r="S25">
-        <v>0.002037912900130644</v>
+        <v>0.001929215916773566</v>
       </c>
       <c r="T25">
-        <v>0.001866591142985343</v>
+        <v>0.001731046577600797</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>24.21940733333333</v>
+        <v>0.289655</v>
       </c>
       <c r="H26">
-        <v>72.65822199999999</v>
+        <v>0.868965</v>
       </c>
       <c r="I26">
-        <v>0.02575927905528127</v>
+        <v>0.0003130190481471841</v>
       </c>
       <c r="J26">
-        <v>0.02654519951532467</v>
+        <v>0.0003240679973299332</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.052894</v>
+        <v>0.661924</v>
       </c>
       <c r="N26">
-        <v>0.105788</v>
+        <v>1.323848</v>
       </c>
       <c r="O26">
-        <v>0.003223137300516178</v>
+        <v>0.05936527823060875</v>
       </c>
       <c r="P26">
-        <v>0.002864772232626178</v>
+        <v>0.05145114524005746</v>
       </c>
       <c r="Q26">
-        <v>1.281061331489333</v>
+        <v>0.19172959622</v>
       </c>
       <c r="R26">
-        <v>7.686367988935999</v>
+        <v>1.15037757732</v>
       </c>
       <c r="S26">
-        <v>8.302569315748216E-05</v>
+        <v>1.85824628847379E-05</v>
       </c>
       <c r="T26">
-        <v>7.6045950481024E-05</v>
+        <v>1.667366959827695E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>24.21940733333333</v>
+        <v>0.289655</v>
       </c>
       <c r="H27">
-        <v>72.65822199999999</v>
+        <v>0.868965</v>
       </c>
       <c r="I27">
-        <v>0.02575927905528127</v>
+        <v>0.0003130190481471841</v>
       </c>
       <c r="J27">
-        <v>0.02654519951532467</v>
+        <v>0.0003240679973299332</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>8.447531</v>
       </c>
       <c r="O27">
-        <v>0.1715856383418833</v>
+        <v>0.2525415949951417</v>
       </c>
       <c r="P27">
-        <v>0.2287617900239049</v>
+        <v>0.3283119696527757</v>
       </c>
       <c r="Q27">
-        <v>68.19806474998688</v>
+        <v>0.8156231972683332</v>
       </c>
       <c r="R27">
-        <v>613.782582749882</v>
+        <v>7.340608775414999</v>
       </c>
       <c r="S27">
-        <v>0.00441992233992714</v>
+        <v>7.905032968295094E-05</v>
       </c>
       <c r="T27">
-        <v>0.006072527357667365</v>
+        <v>0.0001063954025048208</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,46 +2155,46 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>24.21940733333333</v>
+        <v>0.289655</v>
       </c>
       <c r="H28">
-        <v>72.65822199999999</v>
+        <v>0.868965</v>
       </c>
       <c r="I28">
-        <v>0.02575927905528127</v>
+        <v>0.0003130190481471841</v>
       </c>
       <c r="J28">
-        <v>0.02654519951532467</v>
+        <v>0.0003240679973299332</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>0.226329</v>
+        <v>0.1998456666666667</v>
       </c>
       <c r="N28">
-        <v>0.678987</v>
+        <v>0.599537</v>
       </c>
       <c r="O28">
-        <v>0.01379153480713362</v>
+        <v>0.01792334709853119</v>
       </c>
       <c r="P28">
-        <v>0.01838718100270494</v>
+        <v>0.02330091163319983</v>
       </c>
       <c r="Q28">
-        <v>5.481554242346</v>
+        <v>0.05788629657833334</v>
       </c>
       <c r="R28">
-        <v>49.33398818111399</v>
+        <v>0.520976669205</v>
       </c>
       <c r="S28">
-        <v>0.0003552599936975798</v>
+        <v>5.610349048393827E-06</v>
       </c>
       <c r="T28">
-        <v>0.0004880913882411903</v>
+        <v>7.551079768932812E-06</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>24.21940733333333</v>
+        <v>0.289655</v>
       </c>
       <c r="H29">
-        <v>72.65822199999999</v>
+        <v>0.868965</v>
       </c>
       <c r="I29">
-        <v>0.02575927905528127</v>
+        <v>0.0003130190481471841</v>
       </c>
       <c r="J29">
-        <v>0.02654519951532467</v>
+        <v>0.0003240679973299332</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>12.2520685</v>
+        <v>7.057938999999999</v>
       </c>
       <c r="N29">
-        <v>24.504137</v>
+        <v>14.115878</v>
       </c>
       <c r="O29">
-        <v>0.7465893861464306</v>
+        <v>0.6329979158780531</v>
       </c>
       <c r="P29">
-        <v>0.6635797185131369</v>
+        <v>0.5486113882930154</v>
       </c>
       <c r="Q29">
-        <v>296.7378376774024</v>
+        <v>2.044367321045</v>
       </c>
       <c r="R29">
-        <v>1780.427026064414</v>
+        <v>12.26620392627</v>
       </c>
       <c r="S29">
-        <v>0.01923160433745704</v>
+        <v>0.0001981404051072995</v>
       </c>
       <c r="T29">
-        <v>0.0176148560222542</v>
+        <v>0.0001777873939165118</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,46 +2279,46 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>24.21940733333333</v>
+        <v>0.289655</v>
       </c>
       <c r="H30">
-        <v>72.65822199999999</v>
+        <v>0.868965</v>
       </c>
       <c r="I30">
-        <v>0.02575927905528127</v>
+        <v>0.0003130190481471841</v>
       </c>
       <c r="J30">
-        <v>0.02654519951532467</v>
+        <v>0.0003240679973299332</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M30">
-        <v>0.5019366666666667</v>
+        <v>0.1328173333333333</v>
       </c>
       <c r="N30">
-        <v>1.50581</v>
+        <v>0.398452</v>
       </c>
       <c r="O30">
-        <v>0.03058590374768572</v>
+        <v>0.01191184780606359</v>
       </c>
       <c r="P30">
-        <v>0.0407778072712484</v>
+        <v>0.01548577459284704</v>
       </c>
       <c r="Q30">
-        <v>12.15660858553556</v>
+        <v>0.03847120468666666</v>
       </c>
       <c r="R30">
-        <v>109.40947726982</v>
+        <v>0.34624084218</v>
       </c>
       <c r="S30">
-        <v>0.0007878708297946096</v>
+        <v>3.72863526192815E-06</v>
       </c>
       <c r="T30">
-        <v>0.001082455029812746</v>
+        <v>5.018443959406704E-06</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>24.21940733333333</v>
+        <v>0.289655</v>
       </c>
       <c r="H31">
-        <v>72.65822199999999</v>
+        <v>0.868965</v>
       </c>
       <c r="I31">
-        <v>0.02575927905528127</v>
+        <v>0.0003130190481471841</v>
       </c>
       <c r="J31">
-        <v>0.02654519951532467</v>
+        <v>0.0003240679973299332</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.5616469999999999</v>
+        <v>0.2816496666666666</v>
       </c>
       <c r="N31">
-        <v>1.684941</v>
+        <v>0.844949</v>
       </c>
       <c r="O31">
-        <v>0.03422439965635062</v>
+        <v>0.02526001599160157</v>
       </c>
       <c r="P31">
-        <v>0.04562873095637865</v>
+        <v>0.03283881058810476</v>
       </c>
       <c r="Q31">
-        <v>13.60275747054466</v>
+        <v>0.08158123419833332</v>
       </c>
       <c r="R31">
-        <v>122.424817234902</v>
+        <v>0.7342311077849999</v>
       </c>
       <c r="S31">
-        <v>0.0008815958612474077</v>
+        <v>7.906866161873772E-06</v>
       </c>
       <c r="T31">
-        <v>0.001211223766868143</v>
+        <v>1.064200758198411E-05</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>1.320133</v>
+        <v>0.1264026666666667</v>
       </c>
       <c r="H32">
-        <v>3.960399</v>
+        <v>0.379208</v>
       </c>
       <c r="I32">
-        <v>0.001404067154454411</v>
+        <v>0.0001365985134151518</v>
       </c>
       <c r="J32">
-        <v>0.001446905508027602</v>
+        <v>0.0001414201689728462</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.052894</v>
+        <v>0.661924</v>
       </c>
       <c r="N32">
-        <v>0.105788</v>
+        <v>1.323848</v>
       </c>
       <c r="O32">
-        <v>0.003223137300516178</v>
+        <v>0.05936527823060875</v>
       </c>
       <c r="P32">
-        <v>0.002864772232626178</v>
+        <v>0.05145114524005746</v>
       </c>
       <c r="Q32">
-        <v>0.069827114902</v>
+        <v>0.08366895873066665</v>
       </c>
       <c r="R32">
-        <v>0.4189626894119999</v>
+        <v>0.5020137523839999</v>
       </c>
       <c r="S32">
-        <v>4.52550121795162E-06</v>
+        <v>8.109208754778027E-06</v>
       </c>
       <c r="T32">
-        <v>4.145054722631349E-06</v>
+        <v>7.276229653695377E-06</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>1.320133</v>
+        <v>0.1264026666666667</v>
       </c>
       <c r="H33">
-        <v>3.960399</v>
+        <v>0.379208</v>
       </c>
       <c r="I33">
-        <v>0.001404067154454411</v>
+        <v>0.0001365985134151518</v>
       </c>
       <c r="J33">
-        <v>0.001446905508027602</v>
+        <v>0.0001414201689728462</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>8.447531</v>
       </c>
       <c r="O33">
-        <v>0.1715856383418833</v>
+        <v>0.2525415949951417</v>
       </c>
       <c r="P33">
-        <v>0.2287617900239049</v>
+        <v>0.3283119696527757</v>
       </c>
       <c r="Q33">
-        <v>3.717288147207666</v>
+        <v>0.355930148383111</v>
       </c>
       <c r="R33">
-        <v>33.455593324869</v>
+        <v>3.203371335448</v>
       </c>
       <c r="S33">
-        <v>0.0002409177589719317</v>
+        <v>3.44968064518277E-05</v>
       </c>
       <c r="T33">
-        <v>0.0003309966940118418</v>
+        <v>4.642993422410349E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>1.320133</v>
+        <v>0.1264026666666667</v>
       </c>
       <c r="H34">
-        <v>3.960399</v>
+        <v>0.379208</v>
       </c>
       <c r="I34">
-        <v>0.001404067154454411</v>
+        <v>0.0001365985134151518</v>
       </c>
       <c r="J34">
-        <v>0.001446905508027602</v>
+        <v>0.0001414201689728462</v>
       </c>
       <c r="K34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L34">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M34">
-        <v>0.226329</v>
+        <v>0.1998456666666667</v>
       </c>
       <c r="N34">
-        <v>0.678987</v>
+        <v>0.599537</v>
       </c>
       <c r="O34">
-        <v>0.01379153480713362</v>
+        <v>0.01792334709853119</v>
       </c>
       <c r="P34">
-        <v>0.01838718100270494</v>
+        <v>0.02330091163319983</v>
       </c>
       <c r="Q34">
-        <v>0.298784381757</v>
+        <v>0.02526102518844444</v>
       </c>
       <c r="R34">
-        <v>2.689059435813</v>
+        <v>0.227349226696</v>
       </c>
       <c r="S34">
-        <v>1.936424103221107E-05</v>
+        <v>2.448302569083134E-06</v>
       </c>
       <c r="T34">
-        <v>2.660451346991428E-05</v>
+        <v>3.295218860388478E-06</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>1.320133</v>
+        <v>0.1264026666666667</v>
       </c>
       <c r="H35">
-        <v>3.960399</v>
+        <v>0.379208</v>
       </c>
       <c r="I35">
-        <v>0.001404067154454411</v>
+        <v>0.0001365985134151518</v>
       </c>
       <c r="J35">
-        <v>0.001446905508027602</v>
+        <v>0.0001414201689728462</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>12.2520685</v>
+        <v>7.057938999999999</v>
       </c>
       <c r="N35">
-        <v>24.504137</v>
+        <v>14.115878</v>
       </c>
       <c r="O35">
-        <v>0.7465893861464306</v>
+        <v>0.6329979158780531</v>
       </c>
       <c r="P35">
-        <v>0.6635797185131369</v>
+        <v>0.5486113882930154</v>
       </c>
       <c r="Q35">
-        <v>16.1743599451105</v>
+        <v>0.8921423107706665</v>
       </c>
       <c r="R35">
-        <v>97.046159670663</v>
+        <v>5.352853864624</v>
       </c>
       <c r="S35">
-        <v>0.001048261634952484</v>
+        <v>8.646657430383136E-05</v>
       </c>
       <c r="T35">
-        <v>0.0009601371497320638</v>
+        <v>7.758471523282598E-05</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>1.320133</v>
+        <v>0.1264026666666667</v>
       </c>
       <c r="H36">
-        <v>3.960399</v>
+        <v>0.379208</v>
       </c>
       <c r="I36">
-        <v>0.001404067154454411</v>
+        <v>0.0001365985134151518</v>
       </c>
       <c r="J36">
-        <v>0.001446905508027602</v>
+        <v>0.0001414201689728462</v>
       </c>
       <c r="K36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L36">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M36">
-        <v>0.5019366666666667</v>
+        <v>0.1328173333333333</v>
       </c>
       <c r="N36">
-        <v>1.50581</v>
+        <v>0.398452</v>
       </c>
       <c r="O36">
-        <v>0.03058590374768572</v>
+        <v>0.01191184780606359</v>
       </c>
       <c r="P36">
-        <v>0.0407778072712484</v>
+        <v>0.01548577459284704</v>
       </c>
       <c r="Q36">
-        <v>0.6626231575766667</v>
+        <v>0.01678846511288888</v>
       </c>
       <c r="R36">
-        <v>5.96360841819</v>
+        <v>0.151096186016</v>
       </c>
       <c r="S36">
-        <v>4.294466284142959E-05</v>
+        <v>1.627140702335824E-06</v>
       </c>
       <c r="T36">
-        <v>5.900163394605732E-05</v>
+        <v>2.190000859595838E-06</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>1.320133</v>
+        <v>0.1264026666666667</v>
       </c>
       <c r="H37">
-        <v>3.960399</v>
+        <v>0.379208</v>
       </c>
       <c r="I37">
-        <v>0.001404067154454411</v>
+        <v>0.0001365985134151518</v>
       </c>
       <c r="J37">
-        <v>0.001446905508027602</v>
+        <v>0.0001414201689728462</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.5616469999999999</v>
+        <v>0.2816496666666666</v>
       </c>
       <c r="N37">
-        <v>1.684941</v>
+        <v>0.844949</v>
       </c>
       <c r="O37">
-        <v>0.03422439965635062</v>
+        <v>0.02526001599160157</v>
       </c>
       <c r="P37">
-        <v>0.04562873095637865</v>
+        <v>0.03283881058810476</v>
       </c>
       <c r="Q37">
-        <v>0.7414487390509998</v>
+        <v>0.03560126893244444</v>
       </c>
       <c r="R37">
-        <v>6.673038651458999</v>
+        <v>0.320411420392</v>
       </c>
       <c r="S37">
-        <v>4.805335543840273E-05</v>
+        <v>3.450480633295736E-06</v>
       </c>
       <c r="T37">
-        <v>6.602046214509384E-05</v>
+        <v>4.644070142237066E-06</v>
       </c>
     </row>
   </sheetData>
